--- a/biology/Zoologie/Dicranolasma_scabrum/Dicranolasma_scabrum.xlsx
+++ b/biology/Zoologie/Dicranolasma_scabrum/Dicranolasma_scabrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicranolasma scabrum est une espèce d'opilions dyspnois de la famille des Dicranolasmatidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Roumanie, en Hongrie, en Slovaquie, en Italie, en Slovénie, en Croatie, en Serbie, en Bulgarie, en Grèce, en Turquie, en Azerbaïdjan et en Tunisie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Roumanie, en Hongrie, en Slovaquie, en Italie, en Slovénie, en Croatie, en Serbie, en Bulgarie, en Grèce, en Turquie, en Azerbaïdjan et en Tunisie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 4,6 à 5,9 mm et les femelles de 4,8 à 6,2 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 4,6 à 5,9 mm et les femelles de 4,8 à 6,2 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Opilio scaber par Herbst en 1799. Elle est placée dans le genre Dicranolasma par Sørensen en 1873[3].
-Dicranolasma schmidti[4] a été placée en synonymie par Martens en 1978[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Opilio scaber par Herbst en 1799. Elle est placée dans le genre Dicranolasma par Sørensen en 1873.
+Dicranolasma schmidti a été placée en synonymie par Martens en 1978.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Herbst, 1799 : « Forsetzung der Naturgeschichte der Insectengattung Opilio. » Natursystem der ungeflügelten Insekten, Gottlieb August Lange, Berlin, p. 1–30.</t>
         </is>
